--- a/tsmc_back_test.xlsx
+++ b/tsmc_back_test.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eugene\Desktop\Dropbox\Public\python_excel_298\python_excel_lesson3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\user\desktop\l3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0CEA25-34DB-4FD8-B131-4F5518501D30}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1560" yWindow="-18210" windowWidth="38565" windowHeight="21150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1560" yWindow="-18210" windowWidth="38565" windowHeight="21150" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2330" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="weight10d">'2330'!$K$2:$K$11</definedName>
     <definedName name="weight5d">'2330'!$K$2:$K$6</definedName>
   </definedNames>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -211,8 +210,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -329,6 +328,4277 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>收盤價</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>result!$A$2:$A$193</c:f>
+              <c:strCache>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>2017/10/5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017/10/6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017/10/11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017/10/12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017/10/13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017/10/16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017/10/17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017/10/18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017/10/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017/10/20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017/10/23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017/10/24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017/10/25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017/10/26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017/10/27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017/10/30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017/10/31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017/11/01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017/11/02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017/11/03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017/11/06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017/11/07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017/11/08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017/11/09</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017/11/10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017/11/13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2017/11/14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017/11/15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017/11/16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2017/11/17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2017/11/20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017/11/21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017/11/22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2017/11/23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017/11/24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017/11/27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2017/11/28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017/11/29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2017/11/30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2017/12/1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2017/12/4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2017/12/5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2017/12/6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2017/12/7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2017/12/8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2017/12/09</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2017/12/10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017/12/11</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2017/12/12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2017/12/13</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2017/12/14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2017/12/15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2017/12/18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2017/12/19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2017/12/20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2017/12/21</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2017/12/22</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017/12/25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2017/12/26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2017/12/27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2017/12/28</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2017/12/29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2018/1/2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2018/1/4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2018/1/5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2018/1/8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2018/1/9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2018/1/10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2018/1/11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2018/1/12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2018/1/15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2018/1/16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2018/1/17</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2018/1/18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2018/1/19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2018/1/22</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2018/1/23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2018/1/24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2018/1/25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2018/1/26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2018/1/29</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2018/1/30</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2018/1/31</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2018/2/1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2018/2/2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2018/2/5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2018/2/6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2018/2/7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2018/2/8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2018/2/9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2018/2/12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2018/2/21</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2018/2/22</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2018/2/23</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2018/2/26</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2018/2/27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2018/3/1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2018/3/2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2018/3/5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2018/3/6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2018/3/7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2018/3/8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2018/3/9</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2018/3/12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2018/3/13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2018/3/14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2018/3/15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2018/3/16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2018/3/19</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2018/3/20</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2018/3/21</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2018/3/22</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2018/3/23</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2018/3/26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2018/3/27</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2018/3/28</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2018/3/29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2018/3/30</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2018/3/31</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2018/4/2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2018/4/3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2018/4/9</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2018/4/10</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2018/4/11</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2018/4/12</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2018/4/13</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2018/4/14</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2018/4/17</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2018/4/18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2018/4/19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2018/4/20</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2018/4/23</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2018/4/24</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2018/4/25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2018/4/26</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2018/4/27</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2018/4/30</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2018/5/2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2018/5/3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2018/5/4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2018/5/7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2018/5/8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2018/5/9</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2018/5/10</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2018/5/11</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2018/5/14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2018/5/15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2018/5/16</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2018/5/17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2018/5/18</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2018/5/21</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2018/5/22</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2018/5/23</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2018/5/24</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2018/5/25</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2018/5/28</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2018/5/29</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2018/5/30</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2018/5/31</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2018/6/4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2018/6/5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2018/6/6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2018/6/7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2018/6/8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2018/6/11</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2018/6/12</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2018/6/13</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2018/6/14</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2018/6/15</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2018/6/19</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2018/6/20</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2018/6/21</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2018/6/22</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2018/6/25</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2018/6/26</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2018/6/27</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2018/6/28</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2018/6/29</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2018/7/2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2018/7/3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2018/7/4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2018/7/5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2018/7/6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2018/7/9</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2018/7/10</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2018/7/11</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2018/7/12</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2018/7/13</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2018/7/16</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2018/7/17</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2018/7/18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$B$2:$B$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>224.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>224.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>235.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>239.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>240.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>239.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>238.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>234.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>226.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>230.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>224.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>228.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>239.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>240.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>248.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>255.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>261.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>258.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>259.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>259.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>238.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>239.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>246.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>249.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>250.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>243.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>245.5</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>243.5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>244.5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>226.5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>223.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>220.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>223.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>229.5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>230.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>230.5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>226.5</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>223.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>228.5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>228.5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>226.5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>226.5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>214.5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>216.5</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>214.5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>214.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>221.5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>220.5</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>224.5</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>223.5</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>221.5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>223</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5BD3-4C17-B976-BF1B9B182FD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>日報酬率</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>result!$A$2:$A$193</c:f>
+              <c:strCache>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>2017/10/5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017/10/6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017/10/11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017/10/12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017/10/13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017/10/16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017/10/17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017/10/18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017/10/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017/10/20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017/10/23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017/10/24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017/10/25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017/10/26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017/10/27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017/10/30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017/10/31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017/11/01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017/11/02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017/11/03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017/11/06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017/11/07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017/11/08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017/11/09</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017/11/10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017/11/13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2017/11/14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017/11/15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017/11/16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2017/11/17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2017/11/20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017/11/21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017/11/22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2017/11/23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017/11/24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017/11/27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2017/11/28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017/11/29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2017/11/30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2017/12/1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2017/12/4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2017/12/5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2017/12/6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2017/12/7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2017/12/8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2017/12/09</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2017/12/10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017/12/11</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2017/12/12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2017/12/13</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2017/12/14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2017/12/15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2017/12/18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2017/12/19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2017/12/20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2017/12/21</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2017/12/22</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017/12/25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2017/12/26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2017/12/27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2017/12/28</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2017/12/29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2018/1/2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2018/1/4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2018/1/5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2018/1/8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2018/1/9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2018/1/10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2018/1/11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2018/1/12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2018/1/15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2018/1/16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2018/1/17</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2018/1/18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2018/1/19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2018/1/22</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2018/1/23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2018/1/24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2018/1/25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2018/1/26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2018/1/29</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2018/1/30</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2018/1/31</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2018/2/1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2018/2/2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2018/2/5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2018/2/6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2018/2/7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2018/2/8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2018/2/9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2018/2/12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2018/2/21</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2018/2/22</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2018/2/23</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2018/2/26</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2018/2/27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2018/3/1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2018/3/2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2018/3/5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2018/3/6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2018/3/7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2018/3/8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2018/3/9</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2018/3/12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2018/3/13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2018/3/14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2018/3/15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2018/3/16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2018/3/19</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2018/3/20</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2018/3/21</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2018/3/22</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2018/3/23</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2018/3/26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2018/3/27</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2018/3/28</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2018/3/29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2018/3/30</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2018/3/31</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2018/4/2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2018/4/3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2018/4/9</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2018/4/10</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2018/4/11</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2018/4/12</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2018/4/13</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2018/4/14</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2018/4/17</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2018/4/18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2018/4/19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2018/4/20</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2018/4/23</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2018/4/24</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2018/4/25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2018/4/26</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2018/4/27</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2018/4/30</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2018/5/2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2018/5/3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2018/5/4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2018/5/7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2018/5/8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2018/5/9</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2018/5/10</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2018/5/11</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2018/5/14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2018/5/15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2018/5/16</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2018/5/17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2018/5/18</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2018/5/21</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2018/5/22</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2018/5/23</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2018/5/24</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2018/5/25</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2018/5/28</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2018/5/29</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2018/5/30</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2018/5/31</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2018/6/4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2018/6/5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2018/6/6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2018/6/7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2018/6/8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2018/6/11</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2018/6/12</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2018/6/13</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2018/6/14</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2018/6/15</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2018/6/19</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2018/6/20</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2018/6/21</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2018/6/22</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2018/6/25</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2018/6/26</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2018/6/27</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2018/6/28</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2018/6/29</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2018/7/2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2018/7/3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2018/7/4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2018/7/5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2018/7/6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2018/7/9</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2018/7/10</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2018/7/11</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2018/7/12</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2018/7/13</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2018/7/16</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2018/7/17</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2018/7/18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$C$2:$C$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7861915367483297E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9313304721030045E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1052631578947368E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.050420168067227E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4925690021231421E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3157894736842104E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-6.2761506276150627E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.3157894736842104E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-4.1841004184100415E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8.4033613445378148E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2711864406779662E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6736401673640166E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.05761316872428E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.1855670103092781E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-8.2987551867219917E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0920502092050207E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8789144050104383E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-6.1475409836065573E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.1855670103092781E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.0746887966804979E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.1580041580041582E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0876826722338203E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.0416666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.1052631578947368E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.4705882352941176E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-1.2422360248447204E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.8867924528301886E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-4.11522633744856E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0661157024793389E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.1855670103092781E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-2.8688524590163935E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.2658227848101266E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.136752136752137E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-3.6247334754797439E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2123893805309734E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2987012987012988E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-6.41025641025641E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-2.3655913978494623E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.2026431718061676E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.2075055187637969E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7621145374449341E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.5151515151515152E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.3186813186813187E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.6030368763557483E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.2271714922048997E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1111111111111112E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.3956043956043956E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.0940919037199124E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-4.4247787610619468E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.4444444444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5486725663716814E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.3071895424836602E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.0107526881720432E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.0876826722338203E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.3333333333333332E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-2.2727272727272728E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-6.3424947145877377E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.5106382978723406E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2658227848101266E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.2370062370062374E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.6859504132231406E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.8169014084507043E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.3483365949119372E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.7208413001912046E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-3.007518796992481E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1.1627906976744186E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3725490196078431E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-2.1276595744680851E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>7.9051383399209481E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.7647058823529412E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-2.5048169556840076E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-5.533596837944664E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.1841004184100415E-3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-2.5157232704402517E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.7204301075268817E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.5369978858350951E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-1.2371134020618556E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.2964509394572025E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.1224489795918364E-3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-2.0283975659229209E-3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-1.2195121951219513E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.2345679012345678E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.5196687370600416E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0121457489878543E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.0080160320641279E-3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3972055888223553E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.968503937007874E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-7.7220077220077222E-3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-7.7821011673151752E-3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-7.8431372549019607E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-3.952569169960474E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-3.968253968253968E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-2.3904382470119521E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-6.1224489795918364E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.0800821355236138E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-2.3904382470119521E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-4.0816326530612249E-3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.1967213114754103E-3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.0650406504065045E-3</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-4.048582995951417E-3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-8.130081300813009E-3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.0983606557377051E-3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2.0408163265306124E-3</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0183299389002037E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-1.2096774193548387E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-2.0408163265306124E-3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.0449897750511249E-3</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-6.1224489795918364E-3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-2.2587268993839837E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.7310924369747899E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-6.3394683026584867E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-1.0917030567685589E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.2075055187637969E-3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-8.8105726872246704E-3</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-1.3333333333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.7567567567567571E-3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.5659955257270694E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-1.7621145374449341E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-1.1210762331838564E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.1337868480725623E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.242152466367713E-3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.0134228187919462E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.5789473684210523E-3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.5250544662309368E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-1.0729613733905579E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-1.735357917570499E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-1.3245033112582781E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2.4608501118568233E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-2.1834061135371178E-3</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2.1881838074398249E-3</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-2.1834061135371178E-3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-6.5645514223194746E-3</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-8.8105726872246704E-3</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-1.7777777777777778E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1.3574660633484163E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2.2321428571428572E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.3668122270742356E-3</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-1.3043478260869565E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-4.4052863436123352E-3</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.3274336283185841E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1.3100436681222707E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-2.3706896551724137E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.9867549668874173E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-2.5974025974025976E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.4444444444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2.2123893805309734E-3</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.4150110375275938E-3</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-4.1758241758241756E-2</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-1.6055045871559634E-2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-6.993006993006993E-3</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-4.6948356807511738E-3</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2.1226415094339621E-2</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-1.1547344110854504E-2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2.3364485981308409E-3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.993006993006993E-3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-6.9444444444444441E-3</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.1655011655011656E-2</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2.0737327188940093E-2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2.257336343115124E-3</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-9.0090090090090089E-3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2.2727272727272726E-3</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1.8140589569160998E-2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-4.4543429844097994E-3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-8.948545861297539E-3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.7720090293453723E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5BD3-4C17-B976-BF1B9B182FD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3日移動平均</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>result!$A$2:$A$193</c:f>
+              <c:strCache>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>2017/10/5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017/10/6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017/10/11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017/10/12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017/10/13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017/10/16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017/10/17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017/10/18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017/10/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017/10/20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017/10/23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017/10/24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017/10/25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017/10/26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017/10/27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017/10/30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017/10/31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017/11/01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017/11/02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017/11/03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017/11/06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017/11/07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017/11/08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017/11/09</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017/11/10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017/11/13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2017/11/14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017/11/15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017/11/16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2017/11/17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2017/11/20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017/11/21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017/11/22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2017/11/23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017/11/24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017/11/27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2017/11/28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017/11/29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2017/11/30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2017/12/1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2017/12/4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2017/12/5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2017/12/6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2017/12/7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2017/12/8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2017/12/09</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2017/12/10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017/12/11</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2017/12/12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2017/12/13</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2017/12/14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2017/12/15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2017/12/18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2017/12/19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2017/12/20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2017/12/21</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2017/12/22</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017/12/25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2017/12/26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2017/12/27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2017/12/28</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2017/12/29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2018/1/2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2018/1/4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2018/1/5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2018/1/8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2018/1/9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2018/1/10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2018/1/11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2018/1/12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2018/1/15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2018/1/16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2018/1/17</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2018/1/18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2018/1/19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2018/1/22</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2018/1/23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2018/1/24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2018/1/25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2018/1/26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2018/1/29</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2018/1/30</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2018/1/31</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2018/2/1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2018/2/2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2018/2/5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2018/2/6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2018/2/7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2018/2/8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2018/2/9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2018/2/12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2018/2/21</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2018/2/22</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2018/2/23</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2018/2/26</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2018/2/27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2018/3/1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2018/3/2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2018/3/5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2018/3/6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2018/3/7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2018/3/8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2018/3/9</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2018/3/12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2018/3/13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2018/3/14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2018/3/15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2018/3/16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2018/3/19</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2018/3/20</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2018/3/21</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2018/3/22</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2018/3/23</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2018/3/26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2018/3/27</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2018/3/28</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2018/3/29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2018/3/30</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2018/3/31</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2018/4/2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2018/4/3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2018/4/9</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2018/4/10</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2018/4/11</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2018/4/12</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2018/4/13</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2018/4/14</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2018/4/17</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2018/4/18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2018/4/19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2018/4/20</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2018/4/23</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2018/4/24</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2018/4/25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2018/4/26</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2018/4/27</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2018/4/30</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2018/5/2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2018/5/3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2018/5/4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2018/5/7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2018/5/8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2018/5/9</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2018/5/10</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2018/5/11</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2018/5/14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2018/5/15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2018/5/16</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2018/5/17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2018/5/18</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2018/5/21</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2018/5/22</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2018/5/23</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2018/5/24</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2018/5/25</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2018/5/28</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2018/5/29</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2018/5/30</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2018/5/31</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2018/6/4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2018/6/5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2018/6/6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2018/6/7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2018/6/8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2018/6/11</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2018/6/12</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2018/6/13</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2018/6/14</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2018/6/15</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2018/6/19</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2018/6/20</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2018/6/21</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2018/6/22</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2018/6/25</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2018/6/26</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2018/6/27</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2018/6/28</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2018/6/29</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2018/7/2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2018/7/3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2018/7/4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2018/7/5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2018/7/6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2018/7/9</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2018/7/10</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2018/7/11</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2018/7/12</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2018/7/13</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2018/7/16</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2018/7/17</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2018/7/18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$D$2:$D$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="2">
+                  <c:v>227.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>237.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>237.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>238.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>238.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>238.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>237.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>237.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>239.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>241.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>242.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>242.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>240.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>239.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>241.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>240.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>238.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>239.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>241.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>242.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>242.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>241.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>238.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>235.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>231.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>230.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>230.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>232.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>231.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>228.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>226.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>228.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>229.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>229.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>228.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>228.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>226.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>224.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>225.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>227.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>226.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>225.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>226.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>229.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>233.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>237.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>240.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>241.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>240.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>237.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>236.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>237.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>239.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>240.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>243.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>248.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>255.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>261.83333333333331</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>260.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>257.16666666666669</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>255.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>255.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>255.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>257.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>250.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>239.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>235.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>237.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>239.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>242.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>243.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>245.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>245.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>241.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>243.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>246.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>248.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>251.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>254.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>256.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>255.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>254.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>253.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>249.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>246.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>246.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>246.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>246.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>245.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>246.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>245.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>244.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>246.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>246.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>245.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>244.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>244.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>242.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>237.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>233.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>226.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>224.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>223.5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>224.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>224.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>223.5</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>222.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>222.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>224.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>230.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>231.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>232.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>231.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>229.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>226.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>226.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>227.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>228.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>228.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>228.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>228.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>226.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>224.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>223.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>225.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>227.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>229.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>229.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>227.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>227.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>229.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>229.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>227.5</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>227.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>225.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>226.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>215.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>213.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>213.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>214.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>214.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>215.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>217.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>220.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>221.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>220.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>221.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>222.83333333333334</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>223.16666666666666</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>222.66666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5BD3-4C17-B976-BF1B9B182FD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>result!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5日加權移動平均</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>result!$A$2:$A$193</c:f>
+              <c:strCache>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>2017/10/5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017/10/6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2017/10/11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2017/10/12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2017/10/13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017/10/16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2017/10/17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017/10/18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017/10/19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017/10/20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2017/10/23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2017/10/24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017/10/25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2017/10/26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017/10/27</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017/10/30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2017/10/31</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2017/11/01</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2017/11/02</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2017/11/03</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2017/11/06</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2017/11/07</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2017/11/08</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2017/11/09</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2017/11/10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2017/11/13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2017/11/14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2017/11/15</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2017/11/16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2017/11/17</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2017/11/20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2017/11/21</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2017/11/22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2017/11/23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2017/11/24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2017/11/27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2017/11/28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017/11/29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2017/11/30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2017/12/1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2017/12/4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2017/12/5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2017/12/6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2017/12/7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2017/12/8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2017/12/09</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2017/12/10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2017/12/11</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2017/12/12</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2017/12/13</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2017/12/14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2017/12/15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2017/12/18</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2017/12/19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2017/12/20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2017/12/21</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2017/12/22</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2017/12/25</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2017/12/26</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2017/12/27</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2017/12/28</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2017/12/29</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2018/1/2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2018/1/4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2018/1/5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2018/1/8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2018/1/9</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2018/1/10</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2018/1/11</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2018/1/12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2018/1/15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2018/1/16</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2018/1/17</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2018/1/18</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2018/1/19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2018/1/22</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2018/1/23</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2018/1/24</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2018/1/25</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2018/1/26</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2018/1/29</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2018/1/30</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2018/1/31</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2018/2/1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2018/2/2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2018/2/5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2018/2/6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2018/2/7</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2018/2/8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2018/2/9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2018/2/12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2018/2/21</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2018/2/22</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2018/2/23</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2018/2/26</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2018/2/27</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2018/3/1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2018/3/2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2018/3/5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2018/3/6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2018/3/7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2018/3/8</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2018/3/9</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2018/3/12</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2018/3/13</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2018/3/14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2018/3/15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2018/3/16</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2018/3/19</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2018/3/20</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2018/3/21</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2018/3/22</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2018/3/23</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2018/3/26</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2018/3/27</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2018/3/28</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2018/3/29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2018/3/30</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2018/3/31</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2018/4/2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2018/4/3</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2018/4/9</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2018/4/10</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2018/4/11</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2018/4/12</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2018/4/13</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2018/4/14</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2018/4/17</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2018/4/18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2018/4/19</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2018/4/20</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2018/4/23</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2018/4/24</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2018/4/25</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2018/4/26</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2018/4/27</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2018/4/30</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2018/5/2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2018/5/3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2018/5/4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2018/5/7</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2018/5/8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2018/5/9</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2018/5/10</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2018/5/11</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2018/5/14</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2018/5/15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2018/5/16</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2018/5/17</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2018/5/18</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2018/5/21</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2018/5/22</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2018/5/23</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>2018/5/24</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>2018/5/25</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>2018/5/28</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>2018/5/29</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>2018/5/30</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2018/5/31</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>2018/6/1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2018/6/4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>2018/6/5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2018/6/6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2018/6/7</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2018/6/8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>2018/6/11</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2018/6/12</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>2018/6/13</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2018/6/14</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2018/6/15</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2018/6/19</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>2018/6/20</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2018/6/21</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2018/6/22</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>2018/6/25</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>2018/6/26</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>2018/6/27</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>2018/6/28</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>2018/6/29</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>2018/7/2</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>2018/7/3</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>2018/7/4</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>2018/7/5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>2018/7/6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>2018/7/9</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2018/7/10</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>2018/7/11</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>2018/7/12</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2018/7/13</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>2018/7/16</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>2018/7/17</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>2018/7/18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>result!$E$2:$E$193</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-5BD3-4C17-B976-BF1B9B182FD1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="143485808"/>
+        <c:axId val="143486224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143485808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143486224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143486224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143485808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -428,6 +4698,80 @@
         <a:xfrm>
           <a:off x="6115050" y="0"/>
           <a:ext cx="1904775" cy="1838100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>612775</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Closing Price vs Date"/>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5934075" y="1885950"/>
+          <a:ext cx="2743200" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -735,15 +5079,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="工作表1"/>
   <dimension ref="A1:O193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:I193"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
@@ -757,7 +5101,7 @@
     <col min="14" max="14" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +5136,7 @@
       <c r="N1" s="7"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="4">
         <v>43013</v>
       </c>
@@ -805,7 +5149,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>43014</v>
       </c>
@@ -816,7 +5160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>43019</v>
       </c>
@@ -828,7 +5172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -840,7 +5184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
@@ -855,7 +5199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -870,7 +5214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -885,7 +5229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -900,7 +5244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
@@ -915,7 +5259,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -949,7 +5293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -965,7 +5309,7 @@
         <v>237.41818181818181</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
@@ -981,7 +5325,7 @@
         <v>237.8</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
@@ -997,7 +5341,7 @@
         <v>237.93636363636364</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
@@ -1013,7 +5357,7 @@
         <v>237.61818181818182</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +5373,7 @@
         <v>237.87272727272727</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1045,7 +5389,7 @@
         <v>238.82727272727271</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>
@@ -1067,7 +5411,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -1089,7 +5433,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="17.25">
       <c r="A20" s="3" t="s">
         <v>17</v>
       </c>
@@ -1108,7 +5452,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
@@ -1124,7 +5468,7 @@
         <v>240.47272727272727</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12">
       <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
@@ -1140,7 +5484,7 @@
         <v>240.40909090909091</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +5500,7 @@
         <v>241.15454545454546</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -1172,7 +5516,7 @@
         <v>241.51818181818183</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1188,7 +5532,7 @@
         <v>241.52727272727273</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
@@ -1204,7 +5548,7 @@
         <v>241.35454545454544</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
@@ -1220,7 +5564,7 @@
         <v>240.97272727272727</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12">
       <c r="A28" s="3" t="s">
         <v>25</v>
       </c>
@@ -1236,7 +5580,7 @@
         <v>240.74545454545455</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12">
       <c r="A29" s="3" t="s">
         <v>26</v>
       </c>
@@ -1252,7 +5596,7 @@
         <v>240.11818181818182</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12">
       <c r="A30" s="3" t="s">
         <v>27</v>
       </c>
@@ -1268,7 +5612,7 @@
         <v>239.67272727272729</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -1284,7 +5628,7 @@
         <v>239.91818181818181</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12">
       <c r="A32" s="3" t="s">
         <v>29</v>
       </c>
@@ -1300,7 +5644,7 @@
         <v>239.57272727272726</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
@@ -1316,7 +5660,7 @@
         <v>240.06363636363636</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +5676,7 @@
         <v>240.3909090909091</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>32</v>
       </c>
@@ -1348,7 +5692,7 @@
         <v>240.81818181818181</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
@@ -1364,7 +5708,7 @@
         <v>241.4909090909091</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
@@ -1380,7 +5724,7 @@
         <v>240.82727272727271</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
@@ -1396,7 +5740,7 @@
         <v>239.66363636363636</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -1412,7 +5756,7 @@
         <v>238.7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1428,7 +5772,7 @@
         <v>236.24545454545455</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>43070</v>
       </c>
@@ -1444,7 +5788,7 @@
         <v>234.91818181818181</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>43073</v>
       </c>
@@ -1460,7 +5804,7 @@
         <v>234.32727272727271</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>43074</v>
       </c>
@@ -1476,7 +5820,7 @@
         <v>233.54545454545453</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>43075</v>
       </c>
@@ -1492,7 +5836,7 @@
         <v>231.95454545454547</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>43076</v>
       </c>
@@ -1508,7 +5852,7 @@
         <v>230.54545454545453</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>43077</v>
       </c>
@@ -1524,7 +5868,7 @@
         <v>229.51818181818183</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
@@ -1540,7 +5884,7 @@
         <v>229.52727272727273</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>39</v>
       </c>
@@ -1556,7 +5900,7 @@
         <v>229.64545454545456</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +5916,7 @@
         <v>229.18181818181819</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>41</v>
       </c>
@@ -1588,7 +5932,7 @@
         <v>228.84545454545454</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>43082</v>
       </c>
@@ -1604,7 +5948,7 @@
         <v>228.48181818181817</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
         <v>43083</v>
       </c>
@@ -1620,7 +5964,7 @@
         <v>228.18181818181819</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
         <v>43084</v>
       </c>
@@ -1636,7 +5980,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
         <v>43087</v>
       </c>
@@ -1652,7 +5996,7 @@
         <v>228.45454545454547</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>43088</v>
       </c>
@@ -1668,7 +6012,7 @@
         <v>227.75454545454545</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
         <v>43089</v>
       </c>
@@ -1684,7 +6028,7 @@
         <v>227.18181818181819</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>43090</v>
       </c>
@@ -1700,7 +6044,7 @@
         <v>226.64545454545456</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
         <v>43091</v>
       </c>
@@ -1716,7 +6060,7 @@
         <v>226.67272727272729</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>43094</v>
       </c>
@@ -1732,7 +6076,7 @@
         <v>226.94545454545454</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="4">
         <v>43095</v>
       </c>
@@ -1748,7 +6092,7 @@
         <v>226.74545454545455</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>43096</v>
       </c>
@@ -1764,7 +6108,7 @@
         <v>226.3909090909091</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="4">
         <v>43097</v>
       </c>
@@ -1780,7 +6124,7 @@
         <v>226.26363636363635</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="4">
         <v>43098</v>
       </c>
@@ -1796,7 +6140,7 @@
         <v>226.8</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="4">
         <v>43102</v>
       </c>
@@ -1812,7 +6156,7 @@
         <v>227.84545454545454</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="4">
         <v>43104</v>
       </c>
@@ -1828,7 +6172,7 @@
         <v>230.12727272727273</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="4">
         <v>43105</v>
       </c>
@@ -1844,7 +6188,7 @@
         <v>232.22727272727272</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="4">
         <v>43108</v>
       </c>
@@ -1860,7 +6204,7 @@
         <v>234.41818181818181</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="4">
         <v>43109</v>
       </c>
@@ -1876,7 +6220,7 @@
         <v>236.3</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="4">
         <v>43110</v>
       </c>
@@ -1892,7 +6236,7 @@
         <v>236.91818181818181</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="4">
         <v>43111</v>
       </c>
@@ -1908,7 +6252,7 @@
         <v>237.11818181818182</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="4">
         <v>43112</v>
       </c>
@@ -1924,7 +6268,7 @@
         <v>237.51818181818183</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="4">
         <v>43115</v>
       </c>
@@ -1940,7 +6284,7 @@
         <v>238.24545454545455</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="4">
         <v>43116</v>
       </c>
@@ -1956,7 +6300,7 @@
         <v>238.80909090909091</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="4">
         <v>43117</v>
       </c>
@@ -1972,7 +6316,7 @@
         <v>239.44545454545454</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="4">
         <v>43118</v>
       </c>
@@ -1988,7 +6332,7 @@
         <v>241.09090909090909</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="4">
         <v>43119</v>
       </c>
@@ -2004,7 +6348,7 @@
         <v>243.84545454545454</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="4">
         <v>43122</v>
       </c>
@@ -2020,7 +6364,7 @@
         <v>247.40909090909091</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="4">
         <v>43123</v>
       </c>
@@ -2036,7 +6380,7 @@
         <v>251.43636363636364</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="4">
         <v>43124</v>
       </c>
@@ -2052,7 +6396,7 @@
         <v>253.57272727272726</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="4">
         <v>43125</v>
       </c>
@@ -2068,7 +6412,7 @@
         <v>255.31818181818181</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="4">
         <v>43126</v>
       </c>
@@ -2084,7 +6428,7 @@
         <v>256.10000000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="4">
         <v>43129</v>
       </c>
@@ -2100,7 +6444,7 @@
         <v>257.19090909090909</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="4">
         <v>43130</v>
       </c>
@@ -2116,7 +6460,7 @@
         <v>256.94545454545454</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="4">
         <v>43131</v>
       </c>
@@ -2132,7 +6476,7 @@
         <v>256.83636363636361</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="4">
         <v>43132</v>
       </c>
@@ -2148,7 +6492,7 @@
         <v>257.30909090909091</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="4">
         <v>43133</v>
       </c>
@@ -2164,7 +6508,7 @@
         <v>257.58181818181816</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="4">
         <v>43136</v>
       </c>
@@ -2180,7 +6524,7 @@
         <v>256.60000000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="4">
         <v>43137</v>
       </c>
@@ -2196,7 +6540,7 @@
         <v>253.22727272727272</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="4">
         <v>43138</v>
       </c>
@@ -2212,7 +6556,7 @@
         <v>250.52727272727273</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="4">
         <v>43139</v>
       </c>
@@ -2228,7 +6572,7 @@
         <v>247.88181818181818</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="4">
         <v>43140</v>
       </c>
@@ -2244,7 +6588,7 @@
         <v>244.5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="4">
         <v>43143</v>
       </c>
@@ -2260,7 +6604,7 @@
         <v>242.25454545454545</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="4">
         <v>43152</v>
       </c>
@@ -2276,7 +6620,7 @@
         <v>241.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="4">
         <v>43153</v>
       </c>
@@ -2292,7 +6636,7 @@
         <v>240.3909090909091</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="4">
         <v>43154</v>
       </c>
@@ -2308,7 +6652,7 @@
         <v>240.56363636363636</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="4">
         <v>43157</v>
       </c>
@@ -2324,7 +6668,7 @@
         <v>241.27272727272728</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="4">
         <v>43158</v>
       </c>
@@ -2340,7 +6684,7 @@
         <v>242.12727272727273</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="4">
         <v>43160</v>
       </c>
@@ -2356,7 +6700,7 @@
         <v>242.56363636363636</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="4">
         <v>43161</v>
       </c>
@@ -2372,7 +6716,7 @@
         <v>242.38181818181818</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="4">
         <v>43164</v>
       </c>
@@ -2388,7 +6732,7 @@
         <v>242.47272727272727</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="4">
         <v>43165</v>
       </c>
@@ -2404,7 +6748,7 @@
         <v>244.05454545454546</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="4">
         <v>43166</v>
       </c>
@@ -2420,7 +6764,7 @@
         <v>244.77272727272728</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="4">
         <v>43167</v>
       </c>
@@ -2436,7 +6780,7 @@
         <v>245.75454545454545</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="4">
         <v>43168</v>
       </c>
@@ -2452,7 +6796,7 @@
         <v>246.79090909090908</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="4">
         <v>43171</v>
       </c>
@@ -2468,7 +6812,7 @@
         <v>248.26363636363635</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="4">
         <v>43172</v>
       </c>
@@ -2484,7 +6828,7 @@
         <v>250.48181818181817</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="4">
         <v>43173</v>
       </c>
@@ -2500,7 +6844,7 @@
         <v>252.1090909090909</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="4">
         <v>43174</v>
       </c>
@@ -2516,7 +6860,7 @@
         <v>253.17272727272729</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="4">
         <v>43175</v>
       </c>
@@ -2532,7 +6876,7 @@
         <v>254.01818181818183</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="4">
         <v>43178</v>
       </c>
@@ -2548,7 +6892,7 @@
         <v>254.59090909090909</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="4">
         <v>43179</v>
       </c>
@@ -2564,7 +6908,7 @@
         <v>254.55454545454546</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="4">
         <v>43180</v>
       </c>
@@ -2580,7 +6924,7 @@
         <v>254.28181818181818</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="4">
         <v>43181</v>
       </c>
@@ -2596,7 +6940,7 @@
         <v>253.73636363636365</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="4">
         <v>43182</v>
       </c>
@@ -2612,7 +6956,7 @@
         <v>252.07272727272726</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="4">
         <v>43185</v>
       </c>
@@ -2628,7 +6972,7 @@
         <v>250.23636363636365</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="4">
         <v>43186</v>
       </c>
@@ -2644,7 +6988,7 @@
         <v>249.95454545454547</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="4">
         <v>43187</v>
       </c>
@@ -2660,7 +7004,7 @@
         <v>248.72727272727272</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="4">
         <v>43188</v>
       </c>
@@ -2676,7 +7020,7 @@
         <v>247.53636363636363</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="4">
         <v>43189</v>
       </c>
@@ -2692,7 +7036,7 @@
         <v>246.90909090909091</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="4">
         <v>43190</v>
       </c>
@@ -2708,7 +7052,7 @@
         <v>246.62727272727273</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="4">
         <v>43192</v>
       </c>
@@ -2724,7 +7068,7 @@
         <v>246.30909090909091</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="4">
         <v>43193</v>
       </c>
@@ -2740,7 +7084,7 @@
         <v>245.75454545454545</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="4">
         <v>43199</v>
       </c>
@@ -2756,7 +7100,7 @@
         <v>245.52727272727273</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="4">
         <v>43200</v>
       </c>
@@ -2772,7 +7116,7 @@
         <v>245.5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="4">
         <v>43201</v>
       </c>
@@ -2788,7 +7132,7 @@
         <v>245.91818181818181</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="4">
         <v>43202</v>
       </c>
@@ -2804,7 +7148,7 @@
         <v>245.70909090909092</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="4">
         <v>43203</v>
       </c>
@@ -2820,7 +7164,7 @@
         <v>245.51818181818183</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="4">
         <v>43204</v>
       </c>
@@ -2836,7 +7180,7 @@
         <v>245.42727272727274</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="4">
         <v>43207</v>
       </c>
@@ -2852,7 +7196,7 @@
         <v>245.04545454545453</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="4">
         <v>43208</v>
       </c>
@@ -2868,7 +7212,7 @@
         <v>243.70909090909092</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="4">
         <v>43209</v>
       </c>
@@ -2884,7 +7228,7 @@
         <v>243.71818181818182</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4">
       <c r="A132" s="4">
         <v>43210</v>
       </c>
@@ -2900,7 +7244,7 @@
         <v>240.93636363636364</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4">
       <c r="A133" s="4">
         <v>43213</v>
       </c>
@@ -2916,7 +7260,7 @@
         <v>237.97272727272727</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4">
       <c r="A134" s="4">
         <v>43214</v>
       </c>
@@ -2932,7 +7276,7 @@
         <v>235.43636363636364</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4">
       <c r="A135" s="4">
         <v>43215</v>
       </c>
@@ -2948,7 +7292,7 @@
         <v>232.87272727272727</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4">
       <c r="A136" s="4">
         <v>43216</v>
       </c>
@@ -2964,7 +7308,7 @@
         <v>230.18181818181819</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4">
       <c r="A137" s="4">
         <v>43217</v>
       </c>
@@ -2980,7 +7324,7 @@
         <v>228.18181818181819</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4">
       <c r="A138" s="4">
         <v>43220</v>
       </c>
@@ -2996,7 +7340,7 @@
         <v>227.2</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4">
       <c r="A139" s="4">
         <v>43222</v>
       </c>
@@ -3012,7 +7356,7 @@
         <v>225.81818181818181</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4">
       <c r="A140" s="4">
         <v>43223</v>
       </c>
@@ -3028,7 +7372,7 @@
         <v>224.35454545454544</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4">
       <c r="A141" s="4">
         <v>43224</v>
       </c>
@@ -3044,7 +7388,7 @@
         <v>223.66363636363636</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4">
       <c r="A142" s="4">
         <v>43227</v>
       </c>
@@ -3060,7 +7404,7 @@
         <v>223.45454545454547</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4">
       <c r="A143" s="4">
         <v>43228</v>
       </c>
@@ -3076,7 +7420,7 @@
         <v>224.16363636363636</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4">
       <c r="A144" s="4">
         <v>43229</v>
       </c>
@@ -3092,7 +7436,7 @@
         <v>225.11818181818182</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4">
       <c r="A145" s="4">
         <v>43230</v>
       </c>
@@ -3108,7 +7452,7 @@
         <v>226.02727272727273</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4">
       <c r="A146" s="4">
         <v>43231</v>
       </c>
@@ -3124,7 +7468,7 @@
         <v>227.4909090909091</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4">
       <c r="A147" s="4">
         <v>43234</v>
       </c>
@@ -3140,7 +7484,7 @@
         <v>228.75454545454545</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4">
       <c r="A148" s="4">
         <v>43235</v>
       </c>
@@ -3156,7 +7500,7 @@
         <v>229.3909090909091</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4">
       <c r="A149" s="4">
         <v>43236</v>
       </c>
@@ -3172,7 +7516,7 @@
         <v>229.96363636363637</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4">
       <c r="A150" s="4">
         <v>43237</v>
       </c>
@@ -3188,7 +7532,7 @@
         <v>229.67272727272729</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4">
       <c r="A151" s="4">
         <v>43238</v>
       </c>
@@ -3204,7 +7548,7 @@
         <v>228.72727272727272</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4">
       <c r="A152" s="4">
         <v>43241</v>
       </c>
@@ -3220,7 +7564,7 @@
         <v>228.77272727272728</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4">
       <c r="A153" s="4">
         <v>43242</v>
       </c>
@@ -3236,7 +7580,7 @@
         <v>228.71818181818182</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4">
       <c r="A154" s="4">
         <v>43243</v>
       </c>
@@ -3252,7 +7596,7 @@
         <v>228.55454545454546</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4">
       <c r="A155" s="4">
         <v>43244</v>
       </c>
@@ -3268,7 +7612,7 @@
         <v>228.5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4">
       <c r="A156" s="4">
         <v>43245</v>
       </c>
@@ -3284,7 +7628,7 @@
         <v>228.36363636363637</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" s="4">
         <v>43248</v>
       </c>
@@ -3300,7 +7644,7 @@
         <v>228.03636363636363</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4">
       <c r="A158" s="4">
         <v>43249</v>
       </c>
@@ -3316,7 +7660,7 @@
         <v>227.45454545454547</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" s="4">
         <v>43250</v>
       </c>
@@ -3332,7 +7676,7 @@
         <v>226.24545454545455</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4">
       <c r="A160" s="4">
         <v>43251</v>
       </c>
@@ -3348,7 +7692,7 @@
         <v>225.75454545454545</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4">
       <c r="A161" s="4">
         <v>43252</v>
       </c>
@@ -3364,7 +7708,7 @@
         <v>225.30909090909091</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4">
       <c r="A162" s="4">
         <v>43255</v>
       </c>
@@ -3380,7 +7724,7 @@
         <v>225.76363636363635</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" s="4">
         <v>43256</v>
       </c>
@@ -3396,7 +7740,7 @@
         <v>226.21818181818182</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4">
       <c r="A164" s="4">
         <v>43257</v>
       </c>
@@ -3412,7 +7756,7 @@
         <v>226.85454545454544</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4">
       <c r="A165" s="4">
         <v>43258</v>
       </c>
@@ -3428,7 +7772,7 @@
         <v>227.46363636363637</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4">
       <c r="A166" s="4">
         <v>43259</v>
       </c>
@@ -3444,7 +7788,7 @@
         <v>227.5090909090909</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" s="4">
         <v>43262</v>
       </c>
@@ -3460,7 +7804,7 @@
         <v>227.4</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4">
       <c r="A168" s="4">
         <v>43263</v>
       </c>
@@ -3476,7 +7820,7 @@
         <v>227.85454545454544</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" s="4">
         <v>43264</v>
       </c>
@@ -3492,7 +7836,7 @@
         <v>228.78181818181818</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4">
       <c r="A170" s="4">
         <v>43265</v>
       </c>
@@ -3508,7 +7852,7 @@
         <v>228.5090909090909</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4">
       <c r="A171" s="4">
         <v>43266</v>
       </c>
@@ -3524,7 +7868,7 @@
         <v>229.0090909090909</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4">
       <c r="A172" s="4">
         <v>43270</v>
       </c>
@@ -3540,7 +7884,7 @@
         <v>228.29090909090908</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" s="4">
         <v>43271</v>
       </c>
@@ -3556,7 +7900,7 @@
         <v>227.82727272727271</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4">
       <c r="A174" s="4">
         <v>43272</v>
       </c>
@@ -3572,7 +7916,7 @@
         <v>227.5090909090909</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" s="4">
         <v>43273</v>
       </c>
@@ -3588,7 +7932,7 @@
         <v>227.43636363636364</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" s="4">
         <v>43276</v>
       </c>
@@ -3604,7 +7948,7 @@
         <v>225.68181818181819</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4">
       <c r="A177" s="4">
         <v>43277</v>
       </c>
@@ -3620,7 +7964,7 @@
         <v>223.45454545454547</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4">
       <c r="A178" s="4">
         <v>43278</v>
       </c>
@@ -3636,7 +7980,7 @@
         <v>221.16363636363636</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4">
       <c r="A179" s="4">
         <v>43279</v>
       </c>
@@ -3652,7 +7996,7 @@
         <v>218.98181818181817</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4">
       <c r="A180" s="4">
         <v>43280</v>
       </c>
@@ -3668,7 +8012,7 @@
         <v>217.98181818181817</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4">
       <c r="A181" s="4">
         <v>43283</v>
       </c>
@@ -3684,7 +8028,7 @@
         <v>216.70909090909092</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4">
       <c r="A182" s="4">
         <v>43284</v>
       </c>
@@ -3700,7 +8044,7 @@
         <v>215.83636363636364</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4">
       <c r="A183" s="4">
         <v>43285</v>
       </c>
@@ -3716,7 +8060,7 @@
         <v>215.42727272727274</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4">
       <c r="A184" s="4">
         <v>43286</v>
       </c>
@@ -3732,7 +8076,7 @@
         <v>214.92727272727274</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4">
       <c r="A185" s="4">
         <v>43287</v>
       </c>
@@ -3748,7 +8092,7 @@
         <v>215.1</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4">
       <c r="A186" s="4">
         <v>43290</v>
       </c>
@@ -3764,7 +8108,7 @@
         <v>216.28181818181818</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4">
       <c r="A187" s="4">
         <v>43291</v>
       </c>
@@ -3780,7 +8124,7 @@
         <v>217.4909090909091</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4">
       <c r="A188" s="4">
         <v>43292</v>
       </c>
@@ -3796,7 +8140,7 @@
         <v>218.2</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4">
       <c r="A189" s="4">
         <v>43293</v>
       </c>
@@ -3812,7 +8156,7 @@
         <v>218.87272727272727</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4">
       <c r="A190" s="4">
         <v>43294</v>
       </c>
@@ -3828,7 +8172,7 @@
         <v>220.11818181818182</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4">
       <c r="A191" s="4">
         <v>43297</v>
       </c>
@@ -3844,7 +8188,7 @@
         <v>221.03636363636363</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4">
       <c r="A192" s="4">
         <v>43298</v>
       </c>
@@ -3860,7 +8204,7 @@
         <v>221.41818181818181</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" s="9">
         <v>43299</v>
       </c>
@@ -3885,14 +8229,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EED752-AC01-4C8A-A61F-289787C0001B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D193"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="5" customWidth="1"/>
@@ -3901,7 +8245,7 @@
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3918,7 +8262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="4">
         <v>43013</v>
       </c>
@@ -3926,1532 +8270,2675 @@
         <v>224.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="4">
         <v>43014</v>
       </c>
       <c r="B3" s="5">
         <v>224.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="4">
         <v>43019</v>
       </c>
       <c r="B4" s="5">
         <v>233</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>3.7861915367483297E-2</v>
+      </c>
+      <c r="D4">
+        <v>227.33333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="5">
         <v>237.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1.9313304721030045E-2</v>
+      </c>
+      <c r="D5">
+        <v>231.66666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5">
         <v>237.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="5">
         <v>238</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2.1052631578947368E-3</v>
+      </c>
+      <c r="D7">
+        <v>237.66666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="5">
         <v>235.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>-1.050420168067227E-2</v>
+      </c>
+      <c r="D8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="5">
         <v>237.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>8.4925690021231421E-3</v>
+      </c>
+      <c r="D9">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="5">
         <v>239</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>6.3157894736842104E-3</v>
+      </c>
+      <c r="D10">
+        <v>237.33333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="5">
         <v>237.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>-6.2761506276150627E-3</v>
+      </c>
+      <c r="D11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="5">
         <v>239</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>6.3157894736842104E-3</v>
+      </c>
+      <c r="D12">
+        <v>238.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="5">
         <v>238</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>-4.1841004184100415E-3</v>
+      </c>
+      <c r="D13">
+        <v>238.16666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="5">
         <v>238</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>238.33333333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="5">
         <v>236</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>-8.4033613445378148E-3</v>
+      </c>
+      <c r="D15">
+        <v>237.33333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="5">
         <v>239</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1.2711864406779662E-2</v>
+      </c>
+      <c r="D16">
+        <v>237.66666666666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="5">
         <v>243</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1.6736401673640166E-2</v>
+      </c>
+      <c r="D17">
+        <v>239.33333333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="5">
         <v>243</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>241.66666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="5">
         <v>242.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>-2.05761316872428E-3</v>
+      </c>
+      <c r="D19">
+        <v>242.83333333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="5">
         <v>241</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>-6.1855670103092781E-3</v>
+      </c>
+      <c r="D20">
+        <v>242.16666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
         <v>239</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>-8.2987551867219917E-3</v>
+      </c>
+      <c r="D21">
+        <v>240.83333333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="5">
         <v>239.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2.0920502092050207E-3</v>
+      </c>
+      <c r="D22">
+        <v>239.83333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="5">
         <v>244</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1.8789144050104383E-2</v>
+      </c>
+      <c r="D23">
+        <v>240.83333333333334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="5">
         <v>242.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>-6.1475409836065573E-3</v>
+      </c>
+      <c r="D24">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="5">
         <v>241</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>-6.1855670103092781E-3</v>
+      </c>
+      <c r="D25">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="5">
         <v>240.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>-2.0746887966804979E-3</v>
+      </c>
+      <c r="D26">
+        <v>241.33333333333334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="5">
         <v>239.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>-4.1580041580041582E-3</v>
+      </c>
+      <c r="D27">
+        <v>240.33333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="5">
         <v>240</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>2.0876826722338203E-3</v>
+      </c>
+      <c r="D28">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B29" s="5">
         <v>237.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>-1.0416666666666666E-2</v>
+      </c>
+      <c r="D29">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B30" s="5">
         <v>238</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>2.1052631578947368E-3</v>
+      </c>
+      <c r="D30">
+        <v>238.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B31" s="5">
         <v>241.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1.4705882352941176E-2</v>
+      </c>
+      <c r="D31">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B32" s="5">
         <v>238.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>-1.2422360248447204E-2</v>
+      </c>
+      <c r="D32">
+        <v>239.33333333333334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="5">
         <v>243</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>1.8867924528301886E-2</v>
+      </c>
+      <c r="D33">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="5">
         <v>242</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>-4.11522633744856E-3</v>
+      </c>
+      <c r="D34">
+        <v>241.16666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="5">
         <v>242.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>2.0661157024793389E-3</v>
+      </c>
+      <c r="D35">
+        <v>242.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="5">
         <v>244</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>6.1855670103092781E-3</v>
+      </c>
+      <c r="D36">
+        <v>242.83333333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B37" s="5">
         <v>237</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>-2.8688524590163935E-2</v>
+      </c>
+      <c r="D37">
+        <v>241.16666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B38" s="5">
         <v>234</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>-1.2658227848101266E-2</v>
+      </c>
+      <c r="D38">
+        <v>238.33333333333334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="5">
         <v>234.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>2.136752136752137E-3</v>
+      </c>
+      <c r="D39">
+        <v>235.16666666666666</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B40" s="5">
         <v>226</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>-3.6247334754797439E-2</v>
+      </c>
+      <c r="D40">
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>43070</v>
       </c>
       <c r="B41" s="5">
         <v>231</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>2.2123893805309734E-2</v>
+      </c>
+      <c r="D41">
+        <v>230.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>43073</v>
       </c>
       <c r="B42" s="5">
         <v>234</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1.2987012987012988E-2</v>
+      </c>
+      <c r="D42">
+        <v>230.33333333333334</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>43074</v>
       </c>
       <c r="B43" s="5">
         <v>232.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>-6.41025641025641E-3</v>
+      </c>
+      <c r="D43">
+        <v>232.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>43075</v>
       </c>
       <c r="B44">
         <v>227</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>-2.3655913978494623E-2</v>
+      </c>
+      <c r="D44">
+        <v>231.16666666666666</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>43076</v>
       </c>
       <c r="B45">
         <v>226.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>-2.2026431718061676E-3</v>
+      </c>
+      <c r="D45">
+        <v>228.66666666666666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>43077</v>
       </c>
       <c r="B46">
         <v>227</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>2.2075055187637969E-3</v>
+      </c>
+      <c r="D46">
+        <v>226.83333333333334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B47">
         <v>231</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>1.7621145374449341E-2</v>
+      </c>
+      <c r="D47">
+        <v>228.16666666666666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B48">
         <v>231</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>229.66666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B49" s="5">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>-1.5151515151515152E-2</v>
+      </c>
+      <c r="D49">
+        <v>229.83333333333334</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B50">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>228.66666666666666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>43082</v>
       </c>
       <c r="B51">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
         <v>43083</v>
       </c>
       <c r="B52">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
         <v>43084</v>
       </c>
       <c r="B53">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
         <v>43087</v>
       </c>
       <c r="B54">
         <v>230.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>1.3186813186813187E-2</v>
+      </c>
+      <c r="D54">
+        <v>228.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>43088</v>
       </c>
       <c r="B55">
         <v>224.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>-2.6030368763557483E-2</v>
+      </c>
+      <c r="D55">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
         <v>43089</v>
       </c>
       <c r="B56">
         <v>225</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>2.2271714922048997E-3</v>
+      </c>
+      <c r="D56">
+        <v>226.66666666666666</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="4">
         <v>43090</v>
       </c>
       <c r="B57">
         <v>225</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>224.83333333333334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
         <v>43091</v>
       </c>
       <c r="B58">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>1.1111111111111112E-2</v>
+      </c>
+      <c r="D58">
+        <v>225.83333333333334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>43094</v>
       </c>
       <c r="B59">
         <v>228.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>4.3956043956043956E-3</v>
+      </c>
+      <c r="D59">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="4">
         <v>43095</v>
       </c>
       <c r="B60">
         <v>226</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>-1.0940919037199124E-2</v>
+      </c>
+      <c r="D60">
+        <v>227.33333333333334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>43096</v>
       </c>
       <c r="B61">
         <v>225</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>-4.4247787610619468E-3</v>
+      </c>
+      <c r="D61">
+        <v>226.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="4">
         <v>43097</v>
       </c>
       <c r="B62">
         <v>226</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="D62">
+        <v>225.66666666666666</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="4">
         <v>43098</v>
       </c>
       <c r="B63">
         <v>229.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>1.5486725663716814E-2</v>
+      </c>
+      <c r="D63">
+        <v>226.83333333333334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="4">
         <v>43102</v>
       </c>
       <c r="B64">
         <v>232.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>1.3071895424836602E-2</v>
+      </c>
+      <c r="D64">
+        <v>229.33333333333334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="4">
         <v>43104</v>
       </c>
       <c r="B65">
         <v>239.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>3.0107526881720432E-2</v>
+      </c>
+      <c r="D65">
+        <v>233.83333333333334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="4">
         <v>43105</v>
       </c>
       <c r="B66">
         <v>240</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>2.0876826722338203E-3</v>
+      </c>
+      <c r="D66">
+        <v>237.33333333333334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="4">
         <v>43108</v>
       </c>
       <c r="B67" s="5">
         <v>242</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>8.3333333333333332E-3</v>
+      </c>
+      <c r="D67">
+        <v>240.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="4">
         <v>43109</v>
       </c>
       <c r="B68" s="5">
         <v>242</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>241.33333333333334</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="4">
         <v>43110</v>
       </c>
       <c r="B69" s="5">
         <v>236.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>-2.2727272727272728E-2</v>
+      </c>
+      <c r="D69">
+        <v>240.16666666666666</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="4">
         <v>43111</v>
       </c>
       <c r="B70" s="5">
         <v>235</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>-6.3424947145877377E-3</v>
+      </c>
+      <c r="D70">
+        <v>237.83333333333334</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="4">
         <v>43112</v>
       </c>
       <c r="B71" s="5">
         <v>237</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>8.5106382978723406E-3</v>
+      </c>
+      <c r="D71">
+        <v>236.16666666666666</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="4">
         <v>43115</v>
       </c>
       <c r="B72" s="5">
         <v>240</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1.2658227848101266E-2</v>
+      </c>
+      <c r="D72">
+        <v>237.33333333333334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="4">
         <v>43116</v>
       </c>
       <c r="B73" s="5">
         <v>240.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="D73">
+        <v>239.16666666666666</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="4">
         <v>43117</v>
       </c>
       <c r="B74" s="5">
         <v>242</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74">
+        <v>6.2370062370062374E-3</v>
+      </c>
+      <c r="D74">
+        <v>240.83333333333334</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="4">
         <v>43118</v>
       </c>
       <c r="B75" s="5">
         <v>248.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75">
+        <v>2.6859504132231406E-2</v>
+      </c>
+      <c r="D75">
+        <v>243.66666666666666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="4">
         <v>43119</v>
       </c>
       <c r="B76" s="5">
         <v>255.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76">
+        <v>2.8169014084507043E-2</v>
+      </c>
+      <c r="D76">
+        <v>248.66666666666666</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="4">
         <v>43122</v>
       </c>
       <c r="B77" s="5">
         <v>261.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77">
+        <v>2.3483365949119372E-2</v>
+      </c>
+      <c r="D77">
+        <v>255.16666666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="4">
         <v>43123</v>
       </c>
       <c r="B78" s="5">
         <v>266</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78">
+        <v>1.7208413001912046E-2</v>
+      </c>
+      <c r="D78">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="4">
         <v>43124</v>
       </c>
       <c r="B79" s="5">
         <v>258</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79">
+        <v>-3.007518796992481E-2</v>
+      </c>
+      <c r="D79">
+        <v>261.83333333333331</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="4">
         <v>43125</v>
       </c>
       <c r="B80" s="5">
         <v>258</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C80">
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <v>260.66666666666669</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="4">
         <v>43126</v>
       </c>
       <c r="B81" s="5">
         <v>255</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C81">
+        <v>-1.1627906976744186E-2</v>
+      </c>
+      <c r="D81">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="4">
         <v>43129</v>
       </c>
       <c r="B82" s="5">
         <v>258.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C82">
+        <v>1.3725490196078431E-2</v>
+      </c>
+      <c r="D82">
+        <v>257.16666666666669</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="4">
         <v>43130</v>
       </c>
       <c r="B83" s="5">
         <v>253</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C83">
+        <v>-2.1276595744680851E-2</v>
+      </c>
+      <c r="D83">
+        <v>255.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="4">
         <v>43131</v>
       </c>
       <c r="B84" s="5">
         <v>255</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C84">
+        <v>7.9051383399209481E-3</v>
+      </c>
+      <c r="D84">
+        <v>255.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="4">
         <v>43132</v>
       </c>
       <c r="B85" s="5">
         <v>259.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C85">
+        <v>1.7647058823529412E-2</v>
+      </c>
+      <c r="D85">
+        <v>255.83333333333334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="4">
         <v>43133</v>
       </c>
       <c r="B86" s="5">
         <v>259.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="4">
         <v>43136</v>
       </c>
       <c r="B87" s="5">
         <v>253</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C87">
+        <v>-2.5048169556840076E-2</v>
+      </c>
+      <c r="D87">
+        <v>257.33333333333331</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="4">
         <v>43137</v>
       </c>
       <c r="B88" s="5">
         <v>239</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C88">
+        <v>-5.533596837944664E-2</v>
+      </c>
+      <c r="D88">
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="4">
         <v>43138</v>
       </c>
       <c r="B89" s="5">
         <v>240</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89">
+        <v>4.1841004184100415E-3</v>
+      </c>
+      <c r="D89">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="4">
         <v>43139</v>
       </c>
       <c r="B90" s="5">
         <v>238.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C90">
+        <v>-6.2500000000000003E-3</v>
+      </c>
+      <c r="D90">
+        <v>239.16666666666666</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="4">
         <v>43140</v>
       </c>
       <c r="B91" s="5">
         <v>232.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C91">
+        <v>-2.5157232704402517E-2</v>
+      </c>
+      <c r="D91">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="4">
         <v>43143</v>
       </c>
       <c r="B92" s="5">
         <v>236.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C92">
+        <v>1.7204301075268817E-2</v>
+      </c>
+      <c r="D92">
+        <v>235.83333333333334</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="4">
         <v>43152</v>
       </c>
       <c r="B93" s="5">
         <v>242.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C93">
+        <v>2.5369978858350951E-2</v>
+      </c>
+      <c r="D93">
+        <v>237.16666666666666</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="4">
         <v>43153</v>
       </c>
       <c r="B94" s="5">
         <v>239.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C94">
+        <v>-1.2371134020618556E-2</v>
+      </c>
+      <c r="D94">
+        <v>239.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="4">
         <v>43154</v>
       </c>
       <c r="B95" s="5">
         <v>245</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C95">
+        <v>2.2964509394572025E-2</v>
+      </c>
+      <c r="D95">
+        <v>242.33333333333334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="4">
         <v>43157</v>
       </c>
       <c r="B96" s="5">
         <v>246.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C96">
+        <v>6.1224489795918364E-3</v>
+      </c>
+      <c r="D96">
+        <v>243.66666666666666</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="4">
         <v>43158</v>
       </c>
       <c r="B97" s="5">
         <v>246</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="C97">
+        <v>-2.0283975659229209E-3</v>
+      </c>
+      <c r="D97">
+        <v>245.83333333333334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="4">
         <v>43160</v>
       </c>
       <c r="B98" s="10">
         <v>243</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C98">
+        <v>-1.2195121951219513E-2</v>
+      </c>
+      <c r="D98">
+        <v>245.16666666666666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="4">
         <v>43161</v>
       </c>
       <c r="B99" s="5">
         <v>240</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C99">
+        <v>-1.2345679012345678E-2</v>
+      </c>
+      <c r="D99">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="4">
         <v>43164</v>
       </c>
       <c r="B100" s="5">
         <v>241.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100">
+        <v>6.2500000000000003E-3</v>
+      </c>
+      <c r="D100">
+        <v>241.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="4">
         <v>43165</v>
       </c>
       <c r="B101" s="5">
         <v>250</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C101">
+        <v>3.5196687370600416E-2</v>
+      </c>
+      <c r="D101">
+        <v>243.83333333333334</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="4">
         <v>43166</v>
       </c>
       <c r="B102" s="5">
         <v>247</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D102">
+        <v>246.16666666666666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="4">
         <v>43167</v>
       </c>
       <c r="B103" s="5">
         <v>249.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C103">
+        <v>1.0121457489878543E-2</v>
+      </c>
+      <c r="D103">
+        <v>248.83333333333334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="4">
         <v>43168</v>
       </c>
       <c r="B104" s="5">
         <v>250.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C104">
+        <v>4.0080160320641279E-3</v>
+      </c>
+      <c r="D104">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="4">
         <v>43171</v>
       </c>
       <c r="B105" s="5">
         <v>254</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105">
+        <v>1.3972055888223553E-2</v>
+      </c>
+      <c r="D105">
+        <v>251.33333333333334</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="4">
         <v>43172</v>
       </c>
       <c r="B106" s="5">
         <v>259</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C106">
+        <v>1.968503937007874E-2</v>
+      </c>
+      <c r="D106">
+        <v>254.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="4">
         <v>43173</v>
       </c>
       <c r="B107" s="5">
         <v>257</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C107">
+        <v>-7.7220077220077222E-3</v>
+      </c>
+      <c r="D107">
+        <v>256.66666666666669</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="4">
         <v>43174</v>
       </c>
       <c r="B108" s="5">
         <v>255</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C108">
+        <v>-7.7821011673151752E-3</v>
+      </c>
+      <c r="D108">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="4">
         <v>43175</v>
       </c>
       <c r="B109" s="5">
         <v>255</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>255.66666666666666</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="4">
         <v>43178</v>
       </c>
       <c r="B110" s="5">
         <v>255</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="4">
         <v>43179</v>
       </c>
       <c r="B111" s="5">
         <v>253</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111">
+        <v>-7.8431372549019607E-3</v>
+      </c>
+      <c r="D111">
+        <v>254.33333333333334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="4">
         <v>43180</v>
       </c>
       <c r="B112" s="5">
         <v>252</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>-3.952569169960474E-3</v>
+      </c>
+      <c r="D112">
+        <v>253.33333333333334</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="4">
         <v>43181</v>
       </c>
       <c r="B113" s="5">
         <v>251</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>-3.968253968253968E-3</v>
+      </c>
+      <c r="D113">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="4">
         <v>43182</v>
       </c>
       <c r="B114" s="5">
         <v>245</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>-2.3904382470119521E-2</v>
+      </c>
+      <c r="D114">
+        <v>249.33333333333334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="4">
         <v>43185</v>
       </c>
       <c r="B115" s="5">
         <v>243.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>-6.1224489795918364E-3</v>
+      </c>
+      <c r="D115">
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="4">
         <v>43186</v>
       </c>
       <c r="B116" s="5">
         <v>251</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>3.0800821355236138E-2</v>
+      </c>
+      <c r="D116">
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="4">
         <v>43187</v>
       </c>
       <c r="B117" s="5">
         <v>245</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>-2.3904382470119521E-2</v>
+      </c>
+      <c r="D117">
+        <v>246.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="4">
         <v>43188</v>
       </c>
       <c r="B118" s="5">
         <v>244</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>-4.0816326530612249E-3</v>
+      </c>
+      <c r="D118">
+        <v>246.66666666666666</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="4">
         <v>43189</v>
       </c>
       <c r="B119" s="5">
         <v>246</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>8.1967213114754103E-3</v>
+      </c>
+      <c r="D119">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="4">
         <v>43190</v>
       </c>
       <c r="B120" s="5">
         <v>247</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>4.0650406504065045E-3</v>
+      </c>
+      <c r="D120">
+        <v>245.66666666666666</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="4">
         <v>43192</v>
       </c>
       <c r="B121" s="5">
         <v>246</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C121">
+        <v>-4.048582995951417E-3</v>
+      </c>
+      <c r="D121">
+        <v>246.33333333333334</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="4">
         <v>43193</v>
       </c>
       <c r="B122" s="5">
         <v>244</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C122">
+        <v>-8.130081300813009E-3</v>
+      </c>
+      <c r="D122">
+        <v>245.66666666666666</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="4">
         <v>43199</v>
       </c>
       <c r="B123" s="5">
         <v>245</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C123">
+        <v>4.0983606557377051E-3</v>
+      </c>
+      <c r="D123">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="4">
         <v>43200</v>
       </c>
       <c r="B124" s="5">
         <v>245.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C124">
+        <v>2.0408163265306124E-3</v>
+      </c>
+      <c r="D124">
+        <v>244.83333333333334</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="4">
         <v>43201</v>
       </c>
       <c r="B125" s="5">
         <v>248</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C125">
+        <v>1.0183299389002037E-2</v>
+      </c>
+      <c r="D125">
+        <v>246.16666666666666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="4">
         <v>43202</v>
       </c>
       <c r="B126" s="5">
         <v>245</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C126">
+        <v>-1.2096774193548387E-2</v>
+      </c>
+      <c r="D126">
+        <v>246.16666666666666</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="4">
         <v>43203</v>
       </c>
       <c r="B127" s="5">
         <v>244.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C127">
+        <v>-2.0408163265306124E-3</v>
+      </c>
+      <c r="D127">
+        <v>245.83333333333334</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="4">
         <v>43204</v>
       </c>
       <c r="B128" s="5">
         <v>245</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>2.0449897750511249E-3</v>
+      </c>
+      <c r="D128">
+        <v>244.83333333333334</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="4">
         <v>43207</v>
       </c>
       <c r="B129" s="5">
         <v>243.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>-6.1224489795918364E-3</v>
+      </c>
+      <c r="D129">
+        <v>244.33333333333334</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="4">
         <v>43208</v>
       </c>
       <c r="B130" s="5">
         <v>238</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>-2.2587268993839837E-2</v>
+      </c>
+      <c r="D130">
+        <v>242.16666666666666</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="4">
         <v>43209</v>
       </c>
       <c r="B131" s="5">
         <v>244.5</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C131">
+        <v>2.7310924369747899E-2</v>
+      </c>
+      <c r="D131">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="4">
         <v>43210</v>
       </c>
       <c r="B132" s="5">
         <v>229</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C132">
+        <v>-6.3394683026584867E-2</v>
+      </c>
+      <c r="D132">
+        <v>237.16666666666666</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="4">
         <v>43213</v>
       </c>
       <c r="B133" s="5">
         <v>226.5</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C133">
+        <v>-1.0917030567685589E-2</v>
+      </c>
+      <c r="D133">
+        <v>233.33333333333334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="4">
         <v>43214</v>
       </c>
       <c r="B134" s="5">
         <v>227</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C134">
+        <v>2.2075055187637969E-3</v>
+      </c>
+      <c r="D134">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="4">
         <v>43215</v>
       </c>
       <c r="B135" s="5">
         <v>225</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C135">
+        <v>-8.8105726872246704E-3</v>
+      </c>
+      <c r="D135">
+        <v>226.16666666666666</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="4">
         <v>43216</v>
       </c>
       <c r="B136" s="5">
         <v>222</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C136">
+        <v>-1.3333333333333334E-2</v>
+      </c>
+      <c r="D136">
+        <v>224.66666666666666</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="4">
         <v>43217</v>
       </c>
       <c r="B137" s="5">
         <v>223.5</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C137">
+        <v>6.7567567567567571E-3</v>
+      </c>
+      <c r="D137">
+        <v>223.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="4">
         <v>43220</v>
       </c>
       <c r="B138" s="5">
         <v>227</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C138">
+        <v>1.5659955257270694E-2</v>
+      </c>
+      <c r="D138">
+        <v>224.16666666666666</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="4">
         <v>43222</v>
       </c>
       <c r="B139" s="5">
         <v>223</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C139">
+        <v>-1.7621145374449341E-2</v>
+      </c>
+      <c r="D139">
+        <v>224.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="4">
         <v>43223</v>
       </c>
       <c r="B140" s="5">
         <v>220.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C140">
+        <v>-1.1210762331838564E-2</v>
+      </c>
+      <c r="D140">
+        <v>223.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="4">
         <v>43224</v>
       </c>
       <c r="B141" s="5">
         <v>223</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C141">
+        <v>1.1337868480725623E-2</v>
+      </c>
+      <c r="D141">
+        <v>222.16666666666666</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="4">
         <v>43227</v>
       </c>
       <c r="B142" s="5">
         <v>223.5</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C142">
+        <v>2.242152466367713E-3</v>
+      </c>
+      <c r="D142">
+        <v>222.33333333333334</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="4">
         <v>43228</v>
       </c>
       <c r="B143" s="5">
         <v>228</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C143">
+        <v>2.0134228187919462E-2</v>
+      </c>
+      <c r="D143">
+        <v>224.83333333333334</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="4">
         <v>43229</v>
       </c>
       <c r="B144" s="5">
         <v>229.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C144">
+        <v>6.5789473684210523E-3</v>
+      </c>
+      <c r="D144">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="4">
         <v>43230</v>
       </c>
       <c r="B145" s="5">
         <v>229.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="4">
         <v>43231</v>
       </c>
       <c r="B146" s="5">
         <v>233</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C146">
+        <v>1.5250544662309368E-2</v>
+      </c>
+      <c r="D146">
+        <v>230.66666666666666</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="4">
         <v>43234</v>
       </c>
       <c r="B147" s="5">
         <v>233</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>231.83333333333334</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="4">
         <v>43235</v>
       </c>
       <c r="B148" s="5">
         <v>230.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C148">
+        <v>-1.0729613733905579E-2</v>
+      </c>
+      <c r="D148">
+        <v>232.16666666666666</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="4">
         <v>43236</v>
       </c>
       <c r="B149" s="5">
         <v>230.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>231.33333333333334</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="4">
         <v>43237</v>
       </c>
       <c r="B150" s="5">
         <v>226.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C150">
+        <v>-1.735357917570499E-2</v>
+      </c>
+      <c r="D150">
+        <v>229.16666666666666</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="4">
         <v>43238</v>
       </c>
       <c r="B151" s="5">
         <v>223.5</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C151">
+        <v>-1.3245033112582781E-2</v>
+      </c>
+      <c r="D151">
+        <v>226.83333333333334</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="4">
         <v>43241</v>
       </c>
       <c r="B152" s="5">
         <v>229</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C152">
+        <v>2.4608501118568233E-2</v>
+      </c>
+      <c r="D152">
+        <v>226.33333333333334</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="4">
         <v>43242</v>
       </c>
       <c r="B153" s="5">
         <v>229</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>227.16666666666666</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="4">
         <v>43243</v>
       </c>
       <c r="B154" s="5">
         <v>228.5</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <v>-2.1834061135371178E-3</v>
+      </c>
+      <c r="D154">
+        <v>228.83333333333334</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="4">
         <v>43244</v>
       </c>
       <c r="B155" s="5">
         <v>229</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C155">
+        <v>2.1881838074398249E-3</v>
+      </c>
+      <c r="D155">
+        <v>228.83333333333334</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="4">
         <v>43245</v>
       </c>
       <c r="B156" s="5">
         <v>228.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C156">
+        <v>-2.1834061135371178E-3</v>
+      </c>
+      <c r="D156">
+        <v>228.66666666666666</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="4">
         <v>43248</v>
       </c>
       <c r="B157" s="5">
         <v>227</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C157">
+        <v>-6.5645514223194746E-3</v>
+      </c>
+      <c r="D157">
+        <v>228.16666666666666</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="4">
         <v>43249</v>
       </c>
       <c r="B158" s="5">
         <v>225</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C158">
+        <v>-8.8105726872246704E-3</v>
+      </c>
+      <c r="D158">
+        <v>226.83333333333334</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="4">
         <v>43250</v>
       </c>
       <c r="B159" s="5">
         <v>221</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C159">
+        <v>-1.7777777777777778E-2</v>
+      </c>
+      <c r="D159">
+        <v>224.33333333333334</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="4">
         <v>43251</v>
       </c>
       <c r="B160" s="5">
         <v>224</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C160">
+        <v>1.3574660633484163E-2</v>
+      </c>
+      <c r="D160">
+        <v>223.33333333333334</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="4">
         <v>43252</v>
       </c>
       <c r="B161" s="5">
         <v>224</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="4">
         <v>43255</v>
       </c>
       <c r="B162" s="5">
         <v>229</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C162">
+        <v>2.2321428571428572E-2</v>
+      </c>
+      <c r="D162">
+        <v>225.66666666666666</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="4">
         <v>43256</v>
       </c>
       <c r="B163" s="5">
         <v>229</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>227.33333333333334</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="4">
         <v>43257</v>
       </c>
       <c r="B164" s="5">
         <v>230</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C164">
+        <v>4.3668122270742356E-3</v>
+      </c>
+      <c r="D164">
+        <v>229.33333333333334</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="4">
         <v>43258</v>
       </c>
       <c r="B165" s="5">
         <v>230</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>229.66666666666666</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="4">
         <v>43259</v>
       </c>
       <c r="B166" s="5">
         <v>227</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C166">
+        <v>-1.3043478260869565E-2</v>
+      </c>
+      <c r="D166">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="4">
         <v>43262</v>
       </c>
       <c r="B167" s="5">
         <v>226</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C167">
+        <v>-4.4052863436123352E-3</v>
+      </c>
+      <c r="D167">
+        <v>227.66666666666666</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="4">
         <v>43263</v>
       </c>
       <c r="B168" s="5">
         <v>229</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C168">
+        <v>1.3274336283185841E-2</v>
+      </c>
+      <c r="D168">
+        <v>227.33333333333334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="4">
         <v>43264</v>
       </c>
       <c r="B169" s="5">
         <v>232</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C169">
+        <v>1.3100436681222707E-2</v>
+      </c>
+      <c r="D169">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="4">
         <v>43265</v>
       </c>
       <c r="B170" s="5">
         <v>226.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C170">
+        <v>-2.3706896551724137E-2</v>
+      </c>
+      <c r="D170">
+        <v>229.16666666666666</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="4">
         <v>43266</v>
       </c>
       <c r="B171" s="5">
         <v>231</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C171">
+        <v>1.9867549668874173E-2</v>
+      </c>
+      <c r="D171">
+        <v>229.83333333333334</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="4">
         <v>43270</v>
       </c>
       <c r="B172" s="5">
         <v>225</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C172">
+        <v>-2.5974025974025976E-2</v>
+      </c>
+      <c r="D172">
+        <v>227.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="4">
         <v>43271</v>
       </c>
       <c r="B173" s="5">
         <v>226</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C173">
+        <v>4.4444444444444444E-3</v>
+      </c>
+      <c r="D173">
+        <v>227.33333333333334</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="4">
         <v>43272</v>
       </c>
       <c r="B174" s="5">
         <v>226.5</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C174">
+        <v>2.2123893805309734E-3</v>
+      </c>
+      <c r="D174">
+        <v>225.83333333333334</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="4">
         <v>43273</v>
       </c>
       <c r="B175" s="5">
         <v>227.5</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C175">
+        <v>4.4150110375275938E-3</v>
+      </c>
+      <c r="D175">
+        <v>226.66666666666666</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="4">
         <v>43276</v>
       </c>
       <c r="B176" s="5">
         <v>218</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C176">
+        <v>-4.1758241758241756E-2</v>
+      </c>
+      <c r="D176">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="4">
         <v>43277</v>
       </c>
       <c r="B177" s="5">
         <v>214.5</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C177">
+        <v>-1.6055045871559634E-2</v>
+      </c>
+      <c r="D177">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="4">
         <v>43278</v>
       </c>
       <c r="B178" s="5">
         <v>213</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C178">
+        <v>-6.993006993006993E-3</v>
+      </c>
+      <c r="D178">
+        <v>215.16666666666666</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="4">
         <v>43279</v>
       </c>
       <c r="B179" s="5">
         <v>212</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C179">
+        <v>-4.6948356807511738E-3</v>
+      </c>
+      <c r="D179">
+        <v>213.16666666666666</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="4">
         <v>43280</v>
       </c>
       <c r="B180" s="5">
         <v>216.5</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C180">
+        <v>2.1226415094339621E-2</v>
+      </c>
+      <c r="D180">
+        <v>213.83333333333334</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="4">
         <v>43283</v>
       </c>
       <c r="B181" s="5">
         <v>214</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C181">
+        <v>-1.1547344110854504E-2</v>
+      </c>
+      <c r="D181">
+        <v>214.16666666666666</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="4">
         <v>43284</v>
       </c>
       <c r="B182" s="5">
         <v>214.5</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C182">
+        <v>2.3364485981308409E-3</v>
+      </c>
+      <c r="D182">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="4">
         <v>43285</v>
       </c>
       <c r="B183" s="5">
         <v>216</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C183">
+        <v>6.993006993006993E-3</v>
+      </c>
+      <c r="D183">
+        <v>214.83333333333334</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="4">
         <v>43286</v>
       </c>
       <c r="B184" s="5">
         <v>214.5</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C184">
+        <v>-6.9444444444444441E-3</v>
+      </c>
+      <c r="D184">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="4">
         <v>43287</v>
       </c>
       <c r="B185" s="5">
         <v>217</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C185">
+        <v>1.1655011655011656E-2</v>
+      </c>
+      <c r="D185">
+        <v>215.83333333333334</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="4">
         <v>43290</v>
       </c>
       <c r="B186" s="5">
         <v>221.5</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C186">
+        <v>2.0737327188940093E-2</v>
+      </c>
+      <c r="D186">
+        <v>217.66666666666666</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="4">
         <v>43291</v>
       </c>
       <c r="B187" s="5">
         <v>222</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C187">
+        <v>2.257336343115124E-3</v>
+      </c>
+      <c r="D187">
+        <v>220.16666666666666</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="4">
         <v>43292</v>
       </c>
       <c r="B188" s="5">
         <v>220</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C188">
+        <v>-9.0090090090090089E-3</v>
+      </c>
+      <c r="D188">
+        <v>221.16666666666666</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="4">
         <v>43293</v>
       </c>
       <c r="B189" s="5">
         <v>220.5</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C189">
+        <v>2.2727272727272726E-3</v>
+      </c>
+      <c r="D189">
+        <v>220.83333333333334</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="4">
         <v>43294</v>
       </c>
       <c r="B190" s="5">
         <v>224.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C190">
+        <v>1.8140589569160998E-2</v>
+      </c>
+      <c r="D190">
+        <v>221.66666666666666</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="4">
         <v>43297</v>
       </c>
       <c r="B191" s="5">
         <v>223.5</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C191">
+        <v>-4.4543429844097994E-3</v>
+      </c>
+      <c r="D191">
+        <v>222.83333333333334</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="4">
         <v>43298</v>
       </c>
       <c r="B192" s="5">
         <v>221.5</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C192">
+        <v>-8.948545861297539E-3</v>
+      </c>
+      <c r="D192">
+        <v>223.16666666666666</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="11">
         <v>43299</v>
       </c>
       <c r="B193" s="5">
         <v>223</v>
+      </c>
+      <c r="C193">
+        <v>6.7720090293453723E-3</v>
+      </c>
+      <c r="D193">
+        <v>222.66666666666666</v>
       </c>
     </row>
   </sheetData>
